--- a/expedientes.xlsx
+++ b/expedientes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/outsystems2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4F110D-AA53-1941-AFE1-7C1B85E53ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF235CD-9539-AA4A-948C-22E19D4CB69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{688CF441-3C35-BC47-A7DD-4220CAAA9962}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="2" xr2:uid="{688CF441-3C35-BC47-A7DD-4220CAAA9962}"/>
   </bookViews>
   <sheets>
-    <sheet name="expedientes" sheetId="1" r:id="rId1"/>
-    <sheet name="estados" sheetId="2" r:id="rId2"/>
-    <sheet name="tipos" sheetId="3" r:id="rId3"/>
+    <sheet name="estados" sheetId="2" r:id="rId1"/>
+    <sheet name="tipos" sheetId="3" r:id="rId2"/>
+    <sheet name="expedientes" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>nombre</t>
   </si>
@@ -507,260 +504,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504FDB05-5808-8249-BAD3-9CEB85464B1E}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8647A-A42C-E842-A06E-5E668A718B7C}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M22" s="2"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8647A-A42C-E842-A06E-5E668A718B7C}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F086A982-7228-9A46-81E8-5F592897EBBF}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -769,48 +584,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F086A982-7228-9A46-81E8-5F592897EBBF}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504FDB05-5808-8249-BAD3-9CEB85464B1E}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>